--- a/SeleniumLogin/target/classes/TestInfo.xlsx
+++ b/SeleniumLogin/target/classes/TestInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Test</t>
   </si>
@@ -24,9 +24,6 @@
     <t>username</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -40,6 +37,27 @@
   </si>
   <si>
     <t>username1</t>
+  </si>
+  <si>
+    <t>web driver</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>input 1</t>
+  </si>
+  <si>
+    <t>input 2</t>
+  </si>
+  <si>
+    <t>test to see if selenium drags the box</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>test to see if firefox is being used</t>
   </si>
 </sst>
 </file>
@@ -378,38 +396,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -417,19 +440,50 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>360</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -455,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
